--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3962276666666667</v>
+        <v>0.3655573333333333</v>
       </c>
       <c r="N2">
-        <v>1.188683</v>
+        <v>1.096672</v>
       </c>
       <c r="O2">
-        <v>0.1703050239984228</v>
+        <v>0.2375364113931583</v>
       </c>
       <c r="P2">
-        <v>0.1960950025990754</v>
+        <v>0.2572707166041556</v>
       </c>
       <c r="Q2">
-        <v>0.1538953540368889</v>
+        <v>0.1419829556764445</v>
       </c>
       <c r="R2">
-        <v>1.385058186332</v>
+        <v>1.277846601088</v>
       </c>
       <c r="S2">
-        <v>0.1703050239984228</v>
+        <v>0.2375364113931583</v>
       </c>
       <c r="T2">
-        <v>0.1960950025990754</v>
+        <v>0.2572707166041556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6295006666666666</v>
+        <v>0.6295006666666667</v>
       </c>
       <c r="N3">
         <v>1.888502</v>
       </c>
       <c r="O3">
-        <v>0.2705695113256179</v>
+        <v>0.4090448082825151</v>
       </c>
       <c r="P3">
-        <v>0.3115429467724861</v>
+        <v>0.4430278723705731</v>
       </c>
       <c r="Q3">
         <v>0.2444988982675556</v>
@@ -638,10 +638,10 @@
         <v>2.200490084408</v>
       </c>
       <c r="S3">
-        <v>0.2705695113256179</v>
+        <v>0.4090448082825151</v>
       </c>
       <c r="T3">
-        <v>0.3115429467724861</v>
+        <v>0.4430278723705731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1632393333333333</v>
+        <v>0.1127876666666667</v>
       </c>
       <c r="N4">
-        <v>0.489718</v>
+        <v>0.338363</v>
       </c>
       <c r="O4">
-        <v>0.07016289098309611</v>
+        <v>0.07328857923629238</v>
       </c>
       <c r="P4">
-        <v>0.08078794134585419</v>
+        <v>0.07937732656831935</v>
       </c>
       <c r="Q4">
-        <v>0.06340237471911112</v>
+        <v>0.04380688011688889</v>
       </c>
       <c r="R4">
-        <v>0.5706213724720001</v>
+        <v>0.394261921052</v>
       </c>
       <c r="S4">
-        <v>0.07016289098309611</v>
+        <v>0.07328857923629238</v>
       </c>
       <c r="T4">
-        <v>0.08078794134585419</v>
+        <v>0.07937732656831935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9179585</v>
+        <v>0.3541425</v>
       </c>
       <c r="N5">
-        <v>1.835917</v>
+        <v>0.7082850000000001</v>
       </c>
       <c r="O5">
-        <v>0.3945533276038849</v>
+        <v>0.2301191383708208</v>
       </c>
       <c r="P5">
-        <v>0.3028680892102324</v>
+        <v>0.1661581489360305</v>
       </c>
       <c r="Q5">
-        <v>0.3565363053446667</v>
+        <v>0.13754941919</v>
       </c>
       <c r="R5">
-        <v>2.139217832068</v>
+        <v>0.8252965151400001</v>
       </c>
       <c r="S5">
-        <v>0.3945533276038849</v>
+        <v>0.2301191383708208</v>
       </c>
       <c r="T5">
-        <v>0.3028680892102324</v>
+        <v>0.1661581489360305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2196503333333334</v>
+        <v>0.07696466666666667</v>
       </c>
       <c r="N6">
-        <v>0.6589510000000001</v>
+        <v>0.230894</v>
       </c>
       <c r="O6">
-        <v>0.09440924608897809</v>
+        <v>0.05001106271721345</v>
       </c>
       <c r="P6">
-        <v>0.1087060200723518</v>
+        <v>0.0541659355209214</v>
       </c>
       <c r="Q6">
-        <v>0.08531248233377781</v>
+        <v>0.02989317915288889</v>
       </c>
       <c r="R6">
-        <v>0.7678123410040002</v>
+        <v>0.269038612376</v>
       </c>
       <c r="S6">
-        <v>0.09440924608897809</v>
+        <v>0.05001106271721345</v>
       </c>
       <c r="T6">
-        <v>0.1087060200723518</v>
+        <v>0.0541659355209214</v>
       </c>
     </row>
   </sheetData>
